--- a/results/comparaison/retardance_prism_cv.xlsx
+++ b/results/comparaison/retardance_prism_cv.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:BI3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:61">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -403,8 +403,158 @@
       <c r="K1" s="1">
         <v>9</v>
       </c>
+      <c r="L1" s="1">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1">
+        <v>59</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:61">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -438,75 +588,322 @@
       <c r="K2">
         <v>1</v>
       </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <v>1</v>
+      </c>
+      <c r="AA2">
+        <v>1</v>
+      </c>
+      <c r="AB2">
+        <v>1</v>
+      </c>
+      <c r="AC2">
+        <v>1</v>
+      </c>
+      <c r="AD2">
+        <v>1</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>1</v>
+      </c>
+      <c r="AH2">
+        <v>1</v>
+      </c>
+      <c r="AI2">
+        <v>1</v>
+      </c>
+      <c r="AJ2">
+        <v>1</v>
+      </c>
+      <c r="AK2">
+        <v>1</v>
+      </c>
+      <c r="AL2">
+        <v>1</v>
+      </c>
+      <c r="AM2">
+        <v>1</v>
+      </c>
+      <c r="AN2">
+        <v>1</v>
+      </c>
+      <c r="AO2">
+        <v>1</v>
+      </c>
+      <c r="AP2">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+      <c r="AR2">
+        <v>1</v>
+      </c>
+      <c r="AS2">
+        <v>1</v>
+      </c>
+      <c r="AT2">
+        <v>1</v>
+      </c>
+      <c r="AU2">
+        <v>1</v>
+      </c>
+      <c r="AV2">
+        <v>1</v>
+      </c>
+      <c r="AW2">
+        <v>1</v>
+      </c>
+      <c r="AX2">
+        <v>1</v>
+      </c>
+      <c r="AY2">
+        <v>1</v>
+      </c>
+      <c r="AZ2">
+        <v>1</v>
+      </c>
+      <c r="BA2">
+        <v>1</v>
+      </c>
+      <c r="BB2">
+        <v>1</v>
+      </c>
+      <c r="BC2">
+        <v>1</v>
+      </c>
+      <c r="BD2">
+        <v>1</v>
+      </c>
+      <c r="BE2">
+        <v>1</v>
+      </c>
+      <c r="BF2">
+        <v>1</v>
+      </c>
+      <c r="BG2">
+        <v>1</v>
+      </c>
+      <c r="BH2">
+        <v>1</v>
+      </c>
+      <c r="BI2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:61">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0.6722384514324368</v>
-      </c>
       <c r="C3">
-        <v>1.514327230142355</v>
+        <v>0.4480813359318714</v>
       </c>
       <c r="D3">
-        <v>1.237046182429994</v>
+        <v>0.4750603115747488</v>
       </c>
       <c r="E3">
-        <v>0.6931758978972594</v>
+        <v>1.013050969902738</v>
       </c>
       <c r="F3">
-        <v>0.4784278167848021</v>
+        <v>1.175285419422282</v>
       </c>
       <c r="G3">
-        <v>1.015960674546746</v>
+        <v>0.5870936359491098</v>
       </c>
       <c r="H3">
-        <v>0.9897465247632371</v>
+        <v>1.16596724591787</v>
       </c>
       <c r="I3">
-        <v>1.075027455054339</v>
+        <v>0.4822513102017626</v>
       </c>
       <c r="J3">
-        <v>0.9426687967131173</v>
+        <v>0.7132865866993403</v>
       </c>
       <c r="K3">
-        <v>1.147508092216706</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>1.138662841988865</v>
-      </c>
-      <c r="C4">
-        <v>0.975021939035311</v>
-      </c>
-      <c r="D4">
-        <v>0.5396689914411481</v>
-      </c>
-      <c r="E4">
-        <v>0.5838825815961433</v>
-      </c>
-      <c r="F4">
-        <v>0.3754290079706958</v>
-      </c>
-      <c r="G4">
-        <v>1.485958794181459</v>
-      </c>
-      <c r="H4">
-        <v>1.486971954475653</v>
-      </c>
-      <c r="I4">
-        <v>0.7371197028266748</v>
-      </c>
-      <c r="J4">
-        <v>1.001375577260923</v>
-      </c>
-      <c r="K4">
-        <v>1.797445098085018</v>
+        <v>0.6296412709752798</v>
+      </c>
+      <c r="L3">
+        <v>1.158581561120603</v>
+      </c>
+      <c r="M3">
+        <v>0.8236092160218319</v>
+      </c>
+      <c r="N3">
+        <v>1.913988471573975</v>
+      </c>
+      <c r="O3">
+        <v>0.9498461948564801</v>
+      </c>
+      <c r="P3">
+        <v>1.120928885861099</v>
+      </c>
+      <c r="Q3">
+        <v>1.221472817504797</v>
+      </c>
+      <c r="R3">
+        <v>0.8593397947097537</v>
+      </c>
+      <c r="S3">
+        <v>1.125734192169663</v>
+      </c>
+      <c r="T3">
+        <v>0.4407838877545737</v>
+      </c>
+      <c r="U3">
+        <v>0.6097087975138031</v>
+      </c>
+      <c r="V3">
+        <v>1.125993435469961</v>
+      </c>
+      <c r="W3">
+        <v>0.5767381457572521</v>
+      </c>
+      <c r="X3">
+        <v>0.459521973744872</v>
+      </c>
+      <c r="Y3">
+        <v>0.5646649957684775</v>
+      </c>
+      <c r="Z3">
+        <v>0.2827116896919075</v>
+      </c>
+      <c r="AA3">
+        <v>0.4473245030374057</v>
+      </c>
+      <c r="AB3">
+        <v>0.3261300330141803</v>
+      </c>
+      <c r="AC3">
+        <v>0.8364832765482362</v>
+      </c>
+      <c r="AD3">
+        <v>1.04643449143922</v>
+      </c>
+      <c r="AE3">
+        <v>1.252984766141131</v>
+      </c>
+      <c r="AF3">
+        <v>1.547164474623522</v>
+      </c>
+      <c r="AI3">
+        <v>0.9380812273682259</v>
+      </c>
+      <c r="AJ3">
+        <v>0.9998511731062558</v>
+      </c>
+      <c r="AK3">
+        <v>0.8573640685445678</v>
+      </c>
+      <c r="AL3">
+        <v>0.9662270407560437</v>
+      </c>
+      <c r="AM3">
+        <v>1.131681017371912</v>
+      </c>
+      <c r="AN3">
+        <v>1.360133211854703</v>
+      </c>
+      <c r="AO3">
+        <v>1.053866341263658</v>
+      </c>
+      <c r="AP3">
+        <v>1.465026766586648</v>
+      </c>
+      <c r="AQ3">
+        <v>1.331179595666131</v>
+      </c>
+      <c r="AS3">
+        <v>1.016295018023486</v>
+      </c>
+      <c r="AT3">
+        <v>1.544526228193777</v>
+      </c>
+      <c r="AU3">
+        <v>1.234724651906418</v>
+      </c>
+      <c r="AV3">
+        <v>1.449467309614551</v>
+      </c>
+      <c r="AW3">
+        <v>1.001414001174798</v>
+      </c>
+      <c r="AZ3">
+        <v>0.790599242929941</v>
+      </c>
+      <c r="BA3">
+        <v>1.128368740698891</v>
+      </c>
+      <c r="BB3">
+        <v>0.8703963589449948</v>
+      </c>
+      <c r="BC3">
+        <v>0.7228169908769977</v>
+      </c>
+      <c r="BD3">
+        <v>0.4229834666675704</v>
+      </c>
+      <c r="BE3">
+        <v>0.6535851607780011</v>
+      </c>
+      <c r="BF3">
+        <v>0.252862416581177</v>
+      </c>
+      <c r="BG3">
+        <v>0.9250027686956958</v>
+      </c>
+      <c r="BH3">
+        <v>1.082770484394242</v>
+      </c>
+      <c r="BI3">
+        <v>0.9733612907631286</v>
       </c>
     </row>
   </sheetData>
